--- a/published-data/fonds-solidarite/fds-2020-12-28/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-28/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -37662,10 +37662,10 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>26354</v>
+        <v>26355</v>
       </c>
       <c r="D778" t="n">
-        <v>48724775</v>
+        <v>48726213</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -59158,10 +59158,10 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>10820</v>
+        <v>10819</v>
       </c>
       <c r="D1226" t="n">
-        <v>19636674</v>
+        <v>19635236</v>
       </c>
       <c r="E1226" t="inlineStr">
         <is>
@@ -60886,10 +60886,10 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>5848</v>
+        <v>5849</v>
       </c>
       <c r="D1262" t="n">
-        <v>14010014</v>
+        <v>14014230</v>
       </c>
       <c r="E1262" t="inlineStr">
         <is>
